--- a/Tables_Main_Text.xlsx
+++ b/Tables_Main_Text.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="400">
   <si>
     <t>Measure</t>
   </si>
@@ -845,6 +845,396 @@
   </si>
   <si>
     <t>0.025 (0.013–0.040)</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Proportion of states trust declined</t>
+  </si>
+  <si>
+    <t>Extent of decline in trust</t>
+  </si>
+  <si>
+    <t>Probability of initial decent</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>69.8% (49.5%–81.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.8% (40.4%–77.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>———</t>
+  </si>
+  <si>
+    <t>0.021 (0.010–0.033)</t>
+  </si>
+  <si>
+    <t>0.169 (0.137–0.201)</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>70.2% (49.7%–81.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.4% (42.1%–88.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.436 (0.306–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.523 (0.388–0.653) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-6.6%–5.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.6% (-17.2%–16.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.075 (0.054–0.097)</t>
+  </si>
+  <si>
+    <t>0.233 (0.197–0.270)</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>70.8% (51.0%–80.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.5% (42.1%–85.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.422 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.499 (0.367–0.633) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-6.7%–5.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.0% (-17.9%–17.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.106 (0.080–0.132)</t>
+  </si>
+  <si>
+    <t>0.167 (0.135–0.200)</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>71.0% (51.3%–78.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.7% (43.5%–85.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.457 (0.327–0.592) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.492 (0.347–0.633) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.1% (-5.4%–4.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.2% (-16.9%–16.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.190 (0.157–0.224)</t>
+  </si>
+  <si>
+    <t>0.199 (0.165–0.235)</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>70.8% (52.5%–78.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>60.1% (41.6%–80.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.556 (0.408–0.694) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.635 (0.490–0.776) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.3% (-4.1%–4.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>2.2% (-12.5%–17.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.609 (0.567–0.651)</t>
+  </si>
+  <si>
+    <t>0.202 (0.168–0.238)</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>65.0% (48.2%–74.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>55.8% (39.7%–73.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.982 (0.939–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.712 (0.592–0.837) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.5% (0.2%–13.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>4.0% (-10.9%–20.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.000 (0.000–0.001)</t>
+  </si>
+  <si>
+    <t>0.029 (0.016–0.045)</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Proportion of states trust declined</t>
+  </si>
+  <si>
+    <t>Extent of decline in trust</t>
+  </si>
+  <si>
+    <t>Probability of initial decent</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>69.8% (49.3%–79.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.9% (42.6%–78.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>———</t>
+  </si>
+  <si>
+    <t>0.017 (0.007–0.029)</t>
+  </si>
+  <si>
+    <t>0.171 (0.139–0.204)</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>70.2% (48.8%–79.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.3% (40.3%–84.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.440 (0.306–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.535 (0.388–0.673) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-6.8%–5.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.6% (-15.9%–16.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.086 (0.063–0.111)</t>
+  </si>
+  <si>
+    <t>0.228 (0.191–0.265)</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>70.7% (50.5%–80.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.5% (42.2%–89.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.430 (0.286–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.491 (0.347–0.633) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-6.5%–5.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.0% (-18.2%–17.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.112 (0.086–0.139)</t>
+  </si>
+  <si>
+    <t>0.178 (0.145–0.212)</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>71.1% (51.6%–78.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.7% (43.8%–85.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.436 (0.306–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.496 (0.367–0.633) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.3% (-5.3%–4.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.3% (-17.8%–16.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.202 (0.169–0.236)</t>
+  </si>
+  <si>
+    <t>0.213 (0.178–0.248)</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>70.7% (51.2%–78.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>60.0% (43.6%–80.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.583 (0.449–0.714) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.642 (0.510–0.776) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.4% (-3.9%–4.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>2.3% (-11.9%–17.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.583 (0.541–0.625)</t>
+  </si>
+  <si>
+    <t>0.184 (0.150–0.219)</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>65.0% (48.3%–74.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>55.8% (39.0%–74.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.978 (0.939–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.710 (0.571–0.837) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.3% (0.1%–13.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>3.9% (-10.1%–18.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.000 (0.000–0.001)</t>
+  </si>
+  <si>
+    <t>0.027 (0.014–0.042)</t>
   </si>
 </sst>
 </file>
@@ -2050,243 +2440,243 @@
     <col min="3" max="3" width="26.28515625" customWidth="true"/>
     <col min="4" max="4" width="26.28515625" customWidth="true"/>
     <col min="5" max="5" width="26.7109375" customWidth="true"/>
-    <col min="6" max="6" width="26.7109375" customWidth="true"/>
+    <col min="6" max="6" width="26.28515625" customWidth="true"/>
     <col min="7" max="7" width="26.28515625" customWidth="true"/>
     <col min="8" max="8" width="26.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>219</v>
+        <v>349</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>355</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>234</v>
+        <v>364</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>252</v>
+        <v>382</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>261</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>235</v>
+        <v>365</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>244</v>
+        <v>374</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>253</v>
+        <v>383</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>262</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>221</v>
+        <v>351</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>227</v>
+        <v>357</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>254</v>
+        <v>384</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>263</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>237</v>
+        <v>367</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>264</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>214</v>
+        <v>344</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>229</v>
+        <v>359</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>238</v>
+        <v>368</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>247</v>
+        <v>377</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>256</v>
+        <v>386</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>208</v>
+        <v>338</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>248</v>
+        <v>378</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>257</v>
+        <v>387</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>266</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>208</v>
+        <v>338</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>216</v>
+        <v>346</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>249</v>
+        <v>379</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>267</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>217</v>
+        <v>347</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>241</v>
+        <v>371</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>259</v>
+        <v>389</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>268</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>242</v>
+        <v>372</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>251</v>
+        <v>381</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>269</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Main_Text.xlsx
+++ b/Tables_Main_Text.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="518">
   <si>
     <t>Measure</t>
   </si>
@@ -1235,6 +1235,360 @@
   </si>
   <si>
     <t>0.027 (0.014–0.042)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Politcal</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>TrustInMedicine</t>
+  </si>
+  <si>
+    <t>TrustInScience</t>
+  </si>
+  <si>
+    <t>Trust_Medicine_or_Science</t>
+  </si>
+  <si>
+    <t>UninsuredUnder19</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>0.570</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Politcal</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>TrustInMedicine</t>
+  </si>
+  <si>
+    <t>TrustInScience</t>
+  </si>
+  <si>
+    <t>Trust_Medicine_or_Science</t>
+  </si>
+  <si>
+    <t>UninsuredUnder19</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>0.570</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>0.986</t>
   </si>
 </sst>
 </file>
@@ -2174,49 +2528,51 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" bestFit="true" customWidth="true"/>
-    <col min="2" max="3" width="5.7109375" bestFit="true" customWidth="true"/>
-    <col min="4" max="5" width="5.7109375" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="5.7109375" customWidth="true"/>
     <col min="6" max="6" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" t="s">
-        <v>195</v>
+      <c r="A1" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>147</v>
+      <c r="A2" s="0" t="s">
+        <v>460</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>470</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>177</v>
+        <v>489</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>187</v>
+        <v>499</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>196</v>
+        <v>509</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2226,23 +2582,23 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
+      <c r="A3" s="0" t="s">
+        <v>461</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>471</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>481</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>490</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>500</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2251,23 +2607,23 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>149</v>
+      <c r="A4" s="0" t="s">
+        <v>462</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>472</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>482</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>179</v>
+        <v>491</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>189</v>
+        <v>501</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2276,23 +2632,23 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>150</v>
+      <c r="A5" s="0" t="s">
+        <v>463</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>473</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>483</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>180</v>
+        <v>492</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>190</v>
+        <v>502</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>199</v>
+        <v>512</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2301,23 +2657,23 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>151</v>
+      <c r="A6" s="0" t="s">
+        <v>464</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>474</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>171</v>
+        <v>484</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>181</v>
+        <v>493</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>191</v>
+        <v>503</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>200</v>
+        <v>513</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2326,23 +2682,23 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>152</v>
+      <c r="A7" s="0" t="s">
+        <v>465</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>475</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>172</v>
+        <v>485</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>182</v>
+        <v>494</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>191</v>
+        <v>504</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>201</v>
+        <v>514</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2351,23 +2707,23 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>153</v>
+      <c r="A8" s="0" t="s">
+        <v>466</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>476</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>486</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>192</v>
+        <v>505</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>202</v>
+        <v>515</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2376,23 +2732,23 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>154</v>
+      <c r="A9" s="0" t="s">
+        <v>467</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>477</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>487</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>184</v>
+        <v>496</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>193</v>
+        <v>506</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>203</v>
+        <v>516</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2401,23 +2757,23 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>155</v>
+      <c r="A10" s="0" t="s">
+        <v>468</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>478</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>487</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>185</v>
+        <v>497</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>194</v>
+        <v>507</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>204</v>
+        <v>517</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>

--- a/Tables_Main_Text.xlsx
+++ b/Tables_Main_Text.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_714DA21FCCAFEB5F26A5F2FF6E00109E608B05B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B47916E-5C44-40D3-A3D4-DE57136CC2B8}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_714DA21FCCAFEB5F26A5F2FF6E00109E608B05B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51F28C42-7B2B-4806-9F5C-9257CF8C234D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_1" sheetId="2" r:id="rId1"/>
-    <sheet name="Table_3" sheetId="3" r:id="rId2"/>
-    <sheet name="Table_2" sheetId="4" r:id="rId7"/>
+    <sheet name="Table_2" sheetId="4" r:id="rId2"/>
+    <sheet name="Table_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="270">
   <si>
     <t>Measure</t>
   </si>
@@ -475,6 +475,237 @@
     <t>0.2% (-5.0%–3.5%) (n = 48)</t>
   </si>
   <si>
+    <t>TrustInMedicine</t>
+  </si>
+  <si>
+    <t>TrustInScience</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Proportion of states trust declined</t>
+  </si>
+  <si>
+    <t>Extent of decline in trust</t>
+  </si>
+  <si>
+    <t>Probability of initial decent</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>69.8% (49.3%–79.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.9% (42.6%–78.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>———</t>
+  </si>
+  <si>
+    <t>0.017 (0.007–0.029)</t>
+  </si>
+  <si>
+    <t>0.171 (0.139–0.204)</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>70.2% (48.8%–79.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.3% (40.3%–84.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.440 (0.306–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.535 (0.388–0.673) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-6.8%–5.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.6% (-15.9%–16.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.086 (0.063–0.111)</t>
+  </si>
+  <si>
+    <t>0.228 (0.191–0.265)</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>70.7% (50.5%–80.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.5% (42.2%–89.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.430 (0.286–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.491 (0.347–0.633) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-6.5%–5.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.0% (-18.2%–17.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.112 (0.086–0.139)</t>
+  </si>
+  <si>
+    <t>0.178 (0.145–0.212)</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>71.1% (51.6%–78.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.7% (43.8%–85.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.436 (0.306–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.496 (0.367–0.633) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.3% (-5.3%–4.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.3% (-17.8%–16.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.202 (0.169–0.236)</t>
+  </si>
+  <si>
+    <t>0.213 (0.178–0.248)</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>70.7% (51.2%–78.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>60.0% (43.6%–80.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.583 (0.449–0.714) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.642 (0.510–0.776) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.4% (-3.9%–4.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>2.3% (-11.9%–17.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.583 (0.541–0.625)</t>
+  </si>
+  <si>
+    <t>0.184 (0.150–0.219)</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>65.0% (48.3%–74.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>55.8% (39.0%–74.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.978 (0.939–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.710 (0.571–0.837) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.3% (0.1%–13.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>3.9% (-10.1%–18.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.000 (0.000–0.001)</t>
+  </si>
+  <si>
+    <t>0.027 (0.014–0.042)</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.570</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -493,12 +724,6 @@
     <t>Race</t>
   </si>
   <si>
-    <t>TrustInMedicine</t>
-  </si>
-  <si>
-    <t>TrustInScience</t>
-  </si>
-  <si>
     <t>Trust_Medicine_or_Science</t>
   </si>
   <si>
@@ -508,891 +733,105 @@
     <t>MMR</t>
   </si>
   <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.549</t>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
   <si>
     <t>0.350</t>
   </si>
   <si>
-    <t>0.512</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>DTaP</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.506</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.772</t>
-  </si>
-  <si>
-    <t>0.512</t>
-  </si>
-  <si>
-    <t>IPV</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.520</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.777</t>
-  </si>
-  <si>
-    <t>0.505</t>
-  </si>
-  <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.757</t>
-  </si>
-  <si>
-    <t>0.510</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.530</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.510</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>0.514</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Proportion of states trust declined</t>
-  </si>
-  <si>
-    <t>Extent of decline in trust</t>
-  </si>
-  <si>
-    <t>Probability of initial decent</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>69.8% (49.0%–82.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.8% (42.2%–76.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>———</t>
-  </si>
-  <si>
-    <t>0.021 (0.010–0.033)</t>
-  </si>
-  <si>
-    <t>0.183 (0.150–0.218)</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>70.4% (49.5%–80.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.5% (42.1%–83.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.413 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.518 (0.388–0.653) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.7% (-6.7%–5.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.3% (-17.0%–16.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.110 (0.084–0.137)</t>
-  </si>
-  <si>
-    <t>0.223 (0.187–0.259)</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>70.8% (50.0%–79.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.4% (42.0%–88.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.443 (0.306–0.592) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.505 (0.367–0.653) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-6.2%–5.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.0% (-17.6%–17.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.108 (0.082–0.134)</t>
-  </si>
-  <si>
-    <t>0.177 (0.144–0.210)</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>71.0% (51.5%–79.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.7% (44.1%–87.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.460 (0.327–0.592) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.491 (0.347–0.633) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.2% (-5.4%–4.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.2% (-16.9%–15.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.211 (0.176–0.246)</t>
-  </si>
-  <si>
-    <t>0.223 (0.188–0.261)</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>70.7% (51.3%–77.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>59.9% (42.1%–78.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.583 (0.449–0.714) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.650 (0.510–0.776) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.4% (-4.0%–4.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>2.3% (-12.1%–18.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.551 (0.508–0.593)</t>
-  </si>
-  <si>
-    <t>0.169 (0.137–0.202)</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>65.0% (48.1%–74.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>55.5% (39.5%–74.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.980 (0.939–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.717 (0.592–0.837) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.3% (0.2%–13.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>3.8% (-9.4%–19.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.000 (0.000–0.000)</t>
-  </si>
-  <si>
-    <t>0.025 (0.013–0.040)</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Proportion of states trust declined</t>
-  </si>
-  <si>
-    <t>Extent of decline in trust</t>
-  </si>
-  <si>
-    <t>Probability of initial decent</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>69.8% (49.5%–81.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.8% (40.4%–77.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>———</t>
-  </si>
-  <si>
-    <t>0.021 (0.010–0.033)</t>
-  </si>
-  <si>
-    <t>0.169 (0.137–0.201)</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>70.2% (49.7%–81.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.4% (42.1%–88.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.436 (0.306–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.523 (0.388–0.653) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-6.6%–5.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.6% (-17.2%–16.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.075 (0.054–0.097)</t>
-  </si>
-  <si>
-    <t>0.233 (0.197–0.270)</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>70.8% (51.0%–80.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.5% (42.1%–85.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.422 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.499 (0.367–0.633) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-6.7%–5.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.0% (-17.9%–17.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.106 (0.080–0.132)</t>
-  </si>
-  <si>
-    <t>0.167 (0.135–0.200)</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>71.0% (51.3%–78.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.7% (43.5%–85.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.457 (0.327–0.592) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.492 (0.347–0.633) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.1% (-5.4%–4.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.2% (-16.9%–16.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.190 (0.157–0.224)</t>
-  </si>
-  <si>
-    <t>0.199 (0.165–0.235)</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>70.8% (52.5%–78.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>60.1% (41.6%–80.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.556 (0.408–0.694) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.635 (0.490–0.776) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.3% (-4.1%–4.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>2.2% (-12.5%–17.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.609 (0.567–0.651)</t>
-  </si>
-  <si>
-    <t>0.202 (0.168–0.238)</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>65.0% (48.2%–74.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>55.8% (39.7%–73.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.982 (0.939–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.712 (0.592–0.837) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.5% (0.2%–13.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>4.0% (-10.9%–20.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.000 (0.000–0.001)</t>
-  </si>
-  <si>
-    <t>0.029 (0.016–0.045)</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Proportion of states trust declined</t>
-  </si>
-  <si>
-    <t>Extent of decline in trust</t>
-  </si>
-  <si>
-    <t>Probability of initial decent</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>69.8% (49.3%–79.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.9% (42.6%–78.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>———</t>
-  </si>
-  <si>
-    <t>0.017 (0.007–0.029)</t>
-  </si>
-  <si>
-    <t>0.171 (0.139–0.204)</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>70.2% (48.8%–79.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.3% (40.3%–84.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.440 (0.306–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.535 (0.388–0.673) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-6.8%–5.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.6% (-15.9%–16.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.086 (0.063–0.111)</t>
-  </si>
-  <si>
-    <t>0.228 (0.191–0.265)</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>70.7% (50.5%–80.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.5% (42.2%–89.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.430 (0.286–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.491 (0.347–0.633) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-6.5%–5.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.0% (-18.2%–17.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.112 (0.086–0.139)</t>
-  </si>
-  <si>
-    <t>0.178 (0.145–0.212)</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>71.1% (51.6%–78.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.7% (43.8%–85.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.436 (0.306–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.496 (0.367–0.633) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.3% (-5.3%–4.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.3% (-17.8%–16.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.202 (0.169–0.236)</t>
-  </si>
-  <si>
-    <t>0.213 (0.178–0.248)</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>70.7% (51.2%–78.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>60.0% (43.6%–80.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.583 (0.449–0.714) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.642 (0.510–0.776) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.4% (-3.9%–4.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>2.3% (-11.9%–17.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.583 (0.541–0.625)</t>
-  </si>
-  <si>
-    <t>0.184 (0.150–0.219)</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>65.0% (48.3%–74.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>55.8% (39.0%–74.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.978 (0.939–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.710 (0.571–0.837) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.3% (0.1%–13.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>3.9% (-10.1%–18.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.000 (0.000–0.001)</t>
-  </si>
-  <si>
-    <t>0.027 (0.014–0.042)</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Economic</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Politcal</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>TrustInMedicine</t>
-  </si>
-  <si>
-    <t>TrustInScience</t>
-  </si>
-  <si>
-    <t>Trust_Medicine_or_Science</t>
-  </si>
-  <si>
-    <t>UninsuredUnder19</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
     <t>1.000</t>
   </si>
   <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>0.994</t>
-  </si>
-  <si>
-    <t>&lt;0.001</t>
-  </si>
-  <si>
-    <t>DTaP</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.956</t>
-  </si>
-  <si>
-    <t>0.957</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>IPV</t>
-  </si>
-  <si>
-    <t>0.119</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>0.743</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>0.172</t>
   </si>
   <si>
@@ -1400,189 +839,6 @@
   </si>
   <si>
     <t>0.996</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>0.570</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>0.986</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Economic</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Politcal</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>TrustInMedicine</t>
-  </si>
-  <si>
-    <t>TrustInScience</t>
-  </si>
-  <si>
-    <t>Trust_Medicine_or_Science</t>
-  </si>
-  <si>
-    <t>UninsuredUnder19</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>0.994</t>
-  </si>
-  <si>
-    <t>&lt;0.001</t>
-  </si>
-  <si>
-    <t>DTaP</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.956</t>
-  </si>
-  <si>
-    <t>0.957</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>IPV</t>
-  </si>
-  <si>
-    <t>0.119</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>0.743</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.707</t>
-  </si>
-  <si>
-    <t>0.996</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>0.570</t>
   </si>
   <si>
     <t>0.999</t>
@@ -1614,7 +870,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1622,21 +878,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1977,18 +1231,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="true"/>
-    <col min="2" max="2" width="8" customWidth="true"/>
-    <col min="3" max="8" width="26.28515625" customWidth="true"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +1268,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2040,7 +1294,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -2064,7 +1318,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -2088,7 +1342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -2112,7 +1366,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +1392,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -2162,7 +1416,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -2186,7 +1440,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -2210,7 +1464,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,7 +1490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -2260,7 +1514,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -2284,7 +1538,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -2308,7 +1562,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -2334,7 +1588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -2358,7 +1612,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
@@ -2382,7 +1636,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -2406,7 +1660,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +1686,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>24</v>
@@ -2456,7 +1710,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
         <v>25</v>
@@ -2480,7 +1734,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>26</v>
@@ -2518,61 +1772,313 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="8" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="5.7109375" customWidth="true"/>
-    <col min="6" max="6" width="5.7109375" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5.7109375" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="5.7109375" customWidth="true"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
-      <c r="A2" s="0" t="s">
-        <v>460</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>470</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>489</v>
+        <v>247</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>499</v>
+        <v>255</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>509</v>
+        <v>263</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2581,24 +2087,24 @@
       <c r="L2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" s="0" t="s">
-        <v>461</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>225</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>471</v>
+        <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>481</v>
+        <v>241</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>490</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>500</v>
+        <v>256</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>510</v>
+        <v>264</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2606,24 +2112,24 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" s="0" t="s">
-        <v>462</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>226</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>472</v>
+        <v>234</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>482</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>491</v>
+        <v>249</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>501</v>
+        <v>257</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>511</v>
+        <v>265</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2631,24 +2137,24 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" s="0" t="s">
-        <v>463</v>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>227</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>473</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>483</v>
+        <v>243</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>492</v>
+        <v>250</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>502</v>
+        <v>258</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>512</v>
+        <v>266</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2656,24 +2162,24 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" s="0" t="s">
-        <v>464</v>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>474</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>484</v>
+        <v>244</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>493</v>
+        <v>251</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>503</v>
+        <v>259</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>513</v>
+        <v>267</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2681,24 +2187,24 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" s="0" t="s">
-        <v>465</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>475</v>
+        <v>214</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>485</v>
+        <v>217</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>494</v>
+        <v>218</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>504</v>
+        <v>221</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>514</v>
+        <v>222</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2706,24 +2212,24 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" s="0" t="s">
-        <v>466</v>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>476</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>486</v>
+        <v>213</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>495</v>
+        <v>216</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>505</v>
+        <v>220</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>515</v>
+        <v>219</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2731,24 +2237,24 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" s="0" t="s">
-        <v>467</v>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>229</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>477</v>
+        <v>237</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>487</v>
+        <v>245</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>496</v>
+        <v>252</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>506</v>
+        <v>260</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>516</v>
+        <v>268</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2756,24 +2262,24 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" x14ac:dyDescent="0.25">
-      <c r="A10" s="0" t="s">
-        <v>468</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>230</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>478</v>
+        <v>238</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>487</v>
+        <v>245</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>507</v>
+        <v>261</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>517</v>
+        <v>269</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2781,260 +2287,19 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="true"/>
-    <col min="2" max="2" width="26" customWidth="true"/>
-    <col min="3" max="3" width="26.28515625" customWidth="true"/>
-    <col min="4" max="4" width="26.28515625" customWidth="true"/>
-    <col min="5" max="5" width="26.7109375" customWidth="true"/>
-    <col min="6" max="6" width="26.28515625" customWidth="true"/>
-    <col min="7" max="7" width="26.28515625" customWidth="true"/>
-    <col min="8" max="8" width="26.28515625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>
--- a/Tables_Main_Text.xlsx
+++ b/Tables_Main_Text.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="76" documentId="11_714DA21FCCAFEB5F26A5F2FF6E00109E608B05B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51F28C42-7B2B-4806-9F5C-9257CF8C234D}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table_1" sheetId="2" r:id="rId1"/>
     <sheet name="Table_2" sheetId="4" r:id="rId2"/>
     <sheet name="Table_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="335">
   <si>
     <t>Measure</t>
   </si>
@@ -845,6 +845,201 @@
   </si>
   <si>
     <t>0.986</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Proportion of states trust declined</t>
+  </si>
+  <si>
+    <t>Extent of decline in trust</t>
+  </si>
+  <si>
+    <t>Probability of initial decent</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>69.8% (48.6%–80.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.6% (39.3%–81.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>———</t>
+  </si>
+  <si>
+    <t>0.021 (0.010–0.034)</t>
+  </si>
+  <si>
+    <t>0.178 (0.146–0.213)</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>70.3% (48.4%–81.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.6% (39.6%–87.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.434 (0.306–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.505 (0.367–0.653) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-6.7%–5.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.2% (-17.2%–16.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.096 (0.072–0.122)</t>
+  </si>
+  <si>
+    <t>0.242 (0.205–0.279)</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>70.8% (49.2%–81.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.5% (40.5%–90.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.428 (0.286–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.506 (0.367–0.653) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-6.5%–5.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.2% (-17.9%–17.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.105 (0.080–0.132)</t>
+  </si>
+  <si>
+    <t>0.176 (0.143–0.210)</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>71.1% (51.8%–80.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.5% (42.0%–90.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.449 (0.306–0.592) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.506 (0.367–0.653) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.2% (-5.3%–4.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.2% (-17.1%–16.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.201 (0.167–0.236)</t>
+  </si>
+  <si>
+    <t>0.206 (0.170–0.241)</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>70.7% (51.1%–79.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>60.1% (42.3%–83.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.580 (0.449–0.714) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.625 (0.490–0.755) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.4% (-3.9%–4.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>2.0% (-12.5%–17.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.577 (0.534–0.619)</t>
+  </si>
+  <si>
+    <t>0.175 (0.142–0.209)</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>65.1% (48.1%–75.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>55.6% (39.2%–74.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.980 (0.939–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.723 (0.592–0.837) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.3% (0.2%–13.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>4.1% (-9.9%–19.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.000 (0.000–0.001)</t>
+  </si>
+  <si>
+    <t>0.023 (0.011–0.036)</t>
   </si>
 </sst>
 </file>
@@ -870,7 +1065,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -878,19 +1073,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,12 +1434,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="8" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="true"/>
+    <col min="2" max="2" width="8" customWidth="true"/>
+    <col min="3" max="8" width="26.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1491,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1318,7 +1515,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1342,7 +1539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1366,7 +1563,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1589,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -1416,7 +1613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1440,7 +1637,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1464,7 +1661,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1687,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -1514,7 +1711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -1538,7 +1735,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -1562,7 +1759,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1785,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -1612,7 +1809,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
@@ -1636,7 +1833,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -1660,7 +1857,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1686,7 +1883,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>24</v>
@@ -1710,7 +1907,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
         <v>25</v>
@@ -1734,7 +1931,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>26</v>
@@ -1779,245 +1976,248 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="8" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="true"/>
+    <col min="2" max="2" width="26" customWidth="true"/>
+    <col min="3" max="3" width="26.28515625" customWidth="true"/>
+    <col min="5" max="5" width="26.28515625" customWidth="true"/>
+    <col min="6" max="6" width="26.28515625" customWidth="true"/>
+    <col min="4" max="4" width="26.28515625" customWidth="true"/>
+    <col min="7" max="7" width="26.28515625" customWidth="true"/>
+    <col min="8" max="8" width="26.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H9" t="s">
-        <v>212</v>
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2029,19 +2229,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="true" customWidth="true"/>
+    <col min="2" max="3" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="5" width="5.7109375" customWidth="true"/>
+    <col min="6" max="6" width="5.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -2061,7 +2261,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -2087,7 +2287,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -2112,7 +2312,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -2137,7 +2337,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>227</v>
       </c>
@@ -2162,7 +2362,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -2187,7 +2387,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -2212,7 +2412,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -2237,7 +2437,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>229</v>
       </c>
@@ -2262,7 +2462,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>230</v>
       </c>
@@ -2287,7 +2487,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>

--- a/Tables_Main_Text.xlsx
+++ b/Tables_Main_Text.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_714DA21FCCAFEB5F26A5F2FF6E00109E608B05B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51F28C42-7B2B-4806-9F5C-9257CF8C234D}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_714DA21FCCAFEB5F26A5F2FF6E00109E608B05B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDBFECA9-978E-4D84-BB21-6EB3582F610B}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_1" sheetId="2" r:id="rId1"/>
     <sheet name="Table_2" sheetId="4" r:id="rId2"/>
     <sheet name="Table_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="271">
   <si>
     <t>Measure</t>
   </si>
@@ -475,571 +475,379 @@
     <t>0.2% (-5.0%–3.5%) (n = 48)</t>
   </si>
   <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Proportion of states trust declined</t>
+  </si>
+  <si>
+    <t>Extent of decline in trust</t>
+  </si>
+  <si>
+    <t>Probability of initial decent</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Parental_Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>69.8% (48.6%–80.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.6% (39.3%–81.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>———</t>
+  </si>
+  <si>
+    <t>0.021 (0.010–0.034)</t>
+  </si>
+  <si>
+    <t>0.178 (0.146–0.213)</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>70.3% (48.4%–81.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.6% (39.6%–87.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.434 (0.306–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.505 (0.367–0.653) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-6.7%–5.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.2% (-17.2%–16.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.096 (0.072–0.122)</t>
+  </si>
+  <si>
+    <t>0.242 (0.205–0.279)</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>70.8% (49.2%–81.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.5% (40.5%–90.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.428 (0.286–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.506 (0.367–0.653) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-6.5%–5.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.2% (-17.9%–17.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.105 (0.080–0.132)</t>
+  </si>
+  <si>
+    <t>0.176 (0.143–0.210)</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>71.1% (51.8%–80.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.5% (42.0%–90.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.449 (0.306–0.592) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.506 (0.367–0.653) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.2% (-5.3%–4.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.2% (-17.1%–16.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.201 (0.167–0.236)</t>
+  </si>
+  <si>
+    <t>0.206 (0.170–0.241)</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>70.7% (51.1%–79.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>60.1% (42.3%–83.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.580 (0.449–0.714) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.625 (0.490–0.755) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.4% (-3.9%–4.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>2.0% (-12.5%–17.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.577 (0.534–0.619)</t>
+  </si>
+  <si>
+    <t>0.175 (0.142–0.209)</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>65.1% (48.1%–75.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>55.6% (39.2%–74.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.980 (0.939–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.723 (0.592–0.837) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.3% (0.2%–13.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>4.1% (-9.9%–19.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.000 (0.000–0.001)</t>
+  </si>
+  <si>
+    <t>0.023 (0.011–0.036)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Politcal</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
     <t>TrustInMedicine</t>
   </si>
   <si>
     <t>TrustInScience</t>
   </si>
   <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Proportion of states trust declined</t>
-  </si>
-  <si>
-    <t>Extent of decline in trust</t>
-  </si>
-  <si>
-    <t>Probability of initial decent</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>69.8% (49.3%–79.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.9% (42.6%–78.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>———</t>
-  </si>
-  <si>
-    <t>0.017 (0.007–0.029)</t>
-  </si>
-  <si>
-    <t>0.171 (0.139–0.204)</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>70.2% (48.8%–79.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.3% (40.3%–84.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.440 (0.306–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.535 (0.388–0.673) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-6.8%–5.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.6% (-15.9%–16.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.086 (0.063–0.111)</t>
-  </si>
-  <si>
-    <t>0.228 (0.191–0.265)</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>70.7% (50.5%–80.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.5% (42.2%–89.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.430 (0.286–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.491 (0.347–0.633) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-6.5%–5.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.0% (-18.2%–17.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.112 (0.086–0.139)</t>
-  </si>
-  <si>
-    <t>0.178 (0.145–0.212)</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>71.1% (51.6%–78.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.7% (43.8%–85.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.436 (0.306–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.496 (0.367–0.633) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.3% (-5.3%–4.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.3% (-17.8%–16.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.202 (0.169–0.236)</t>
-  </si>
-  <si>
-    <t>0.213 (0.178–0.248)</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>70.7% (51.2%–78.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>60.0% (43.6%–80.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.583 (0.449–0.714) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.642 (0.510–0.776) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.4% (-3.9%–4.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>2.3% (-11.9%–17.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.583 (0.541–0.625)</t>
-  </si>
-  <si>
-    <t>0.184 (0.150–0.219)</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>65.0% (48.3%–74.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>55.8% (39.0%–74.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.978 (0.939–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.710 (0.571–0.837) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.3% (0.1%–13.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>3.9% (-10.1%–18.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.000 (0.000–0.001)</t>
-  </si>
-  <si>
-    <t>0.027 (0.014–0.042)</t>
+    <t>Trust_Medicine_or_Science</t>
+  </si>
+  <si>
+    <t>UninsuredUnder19</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>0.352</t>
   </si>
   <si>
     <t>1.000</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.565</t>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.106</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>0.340</t>
   </si>
   <si>
     <t>0.999</t>
   </si>
   <si>
-    <t>0.743</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.570</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Economic</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Politcal</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Trust_Medicine_or_Science</t>
-  </si>
-  <si>
-    <t>UninsuredUnder19</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>0.329</t>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.860</t>
+  </si>
+  <si>
+    <t>0.750</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>0.339</t>
   </si>
   <si>
     <t>1.000</t>
   </si>
   <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>0.994</t>
-  </si>
-  <si>
-    <t>&lt;0.001</t>
-  </si>
-  <si>
-    <t>DTaP</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.956</t>
-  </si>
-  <si>
-    <t>0.957</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>IPV</t>
-  </si>
-  <si>
-    <t>0.119</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.774</t>
+    <t>0.292</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.630</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>0.338</t>
   </si>
   <si>
     <t>0.999</t>
   </si>
   <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.707</t>
-  </si>
-  <si>
-    <t>0.996</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>0.986</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Proportion of states trust declined</t>
-  </si>
-  <si>
-    <t>Extent of decline in trust</t>
-  </si>
-  <si>
-    <t>Probability of initial decent</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Parental_Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>69.8% (48.6%–80.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.6% (39.3%–81.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>———</t>
-  </si>
-  <si>
-    <t>0.021 (0.010–0.034)</t>
-  </si>
-  <si>
-    <t>0.178 (0.146–0.213)</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>70.3% (48.4%–81.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.6% (39.6%–87.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.434 (0.306–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.505 (0.367–0.653) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-6.7%–5.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.2% (-17.2%–16.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.096 (0.072–0.122)</t>
-  </si>
-  <si>
-    <t>0.242 (0.205–0.279)</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>70.8% (49.2%–81.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.5% (40.5%–90.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.428 (0.286–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.506 (0.367–0.653) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-6.5%–5.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.2% (-17.9%–17.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.105 (0.080–0.132)</t>
-  </si>
-  <si>
-    <t>0.176 (0.143–0.210)</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>71.1% (51.8%–80.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.5% (42.0%–90.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.449 (0.306–0.592) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.506 (0.367–0.653) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.2% (-5.3%–4.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.2% (-17.1%–16.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.201 (0.167–0.236)</t>
-  </si>
-  <si>
-    <t>0.206 (0.170–0.241)</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>70.7% (51.1%–79.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>60.1% (42.3%–83.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.580 (0.449–0.714) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.625 (0.490–0.755) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.4% (-3.9%–4.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>2.0% (-12.5%–17.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.577 (0.534–0.619)</t>
-  </si>
-  <si>
-    <t>0.175 (0.142–0.209)</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>65.1% (48.1%–75.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>55.6% (39.2%–74.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.980 (0.939–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.723 (0.592–0.837) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.3% (0.2%–13.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>4.1% (-9.9%–19.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.000 (0.000–0.001)</t>
-  </si>
-  <si>
-    <t>0.023 (0.011–0.036)</t>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.531</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>0.516</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +873,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1073,21 +881,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,12 +1240,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="true"/>
-    <col min="2" max="2" width="8" customWidth="true"/>
-    <col min="3" max="8" width="26.28515625" customWidth="true"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1491,7 +1297,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1515,7 +1321,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1539,7 +1345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1563,7 +1369,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1395,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -1613,7 +1419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1637,7 +1443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1661,7 +1467,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1687,7 +1493,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -1711,7 +1517,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -1735,7 +1541,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -1759,7 +1565,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1785,7 +1591,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -1809,7 +1615,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
@@ -1833,7 +1639,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -1857,7 +1663,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +1689,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>24</v>
@@ -1907,7 +1713,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
         <v>25</v>
@@ -1931,7 +1737,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>26</v>
@@ -1976,248 +1782,243 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="true"/>
-    <col min="2" max="2" width="26" customWidth="true"/>
-    <col min="3" max="3" width="26.28515625" customWidth="true"/>
-    <col min="5" max="5" width="26.28515625" customWidth="true"/>
-    <col min="6" max="6" width="26.28515625" customWidth="true"/>
-    <col min="4" max="4" width="26.28515625" customWidth="true"/>
-    <col min="7" max="7" width="26.28515625" customWidth="true"/>
-    <col min="8" max="8" width="26.28515625" customWidth="true"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
-      <c r="A2" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>334</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2227,58 +2028,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="true" customWidth="true"/>
-    <col min="2" max="3" width="5.7109375" bestFit="true" customWidth="true"/>
-    <col min="4" max="5" width="5.7109375" customWidth="true"/>
-    <col min="6" max="6" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="C1" t="s">
-        <v>239</v>
-      </c>
       <c r="D1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2287,24 +2088,24 @@
       <c r="L2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2312,24 +2113,24 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2337,24 +2138,24 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2362,24 +2163,24 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2387,49 +2188,44 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2437,24 +2233,24 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2462,24 +2258,24 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2487,7 +2283,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2499,6 +2295,13 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
